--- a/codebooks/Codebook_Beneficiary_Summary_File.xlsx
+++ b/codebooks/Codebook_Beneficiary_Summary_File.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fhunt\OneDrive\Desktop\Python Projects\Medicare-Claims-Analysis\data\codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fhunt\OneDrive\Desktop\Python Projects\Medicare-Claims-Analysis\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323B74D4-E052-43EE-8161-9B090AF1763E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D55D635-78AF-4F49-BEFD-EF83D1493681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{39AADABC-B068-4050-AC5E-19C011DE8FEE}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="1" xr2:uid="{39AADABC-B068-4050-AC5E-19C011DE8FEE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Codebook" sheetId="1" r:id="rId1"/>
+    <sheet name="State FIPS Codes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="214">
   <si>
     <t>old_name</t>
   </si>
@@ -372,13 +373,325 @@
   </si>
   <si>
     <t>Carrier annual primary payer reimbursement amount (The sum of all primary payer fee–for–service reimbursements made during the calendar year for services covered by carrier claims.)</t>
+  </si>
+  <si>
+    <t>state_name</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WY</t>
+  </si>
+  <si>
+    <t>state_abbrev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,16 +707,312 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -411,26 +1020,214 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{B2BAFD4B-1D30-4DCB-8A0A-2E51348304BC}"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -764,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456F482F-F64F-40E5-B961-B5ADA7CB91C9}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -786,7 +1583,7 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -794,13 +1591,13 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -808,13 +1605,13 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -822,13 +1619,13 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -836,13 +1633,13 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1242,4 +2039,596 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B7E22A-8D35-49A6-B09D-B9743ED3C15A}">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="4">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="4">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="4">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="4">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="4">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="4">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="4">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="4">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="4">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="4">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="4">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="4">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="4">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="4">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="4">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="4">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="4">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="4">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="4">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="4">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="4">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="4">
+        <v>32</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="4">
+        <v>33</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="4">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="4">
+        <v>35</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="4">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="4">
+        <v>37</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="4">
+        <v>38</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="4">
+        <v>39</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="4">
+        <v>40</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="4">
+        <v>41</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="4">
+        <v>42</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="4">
+        <v>44</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="4">
+        <v>45</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="4">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="4">
+        <v>47</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="4">
+        <v>48</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="4">
+        <v>49</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="4">
+        <v>50</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="4">
+        <v>51</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="4">
+        <v>53</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="4">
+        <v>54</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="4">
+        <v>55</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="4">
+        <v>56</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>